--- a/student/student.xlsx
+++ b/student/student.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\nukayama\Doc-nuk\09_mysql\LaLa-mysql-ex\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1F14B-E668-4DDD-BFBE-A2A9B7437CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4B29D-7EE5-44F0-B47A-9CCB6F6613A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="480" windowWidth="14025" windowHeight="9300" xr2:uid="{1CC70915-86DB-494C-BD6F-EFA0A006F3C6}"/>
+    <workbookView xWindow="2055" yWindow="900" windowWidth="14025" windowHeight="8625" activeTab="1" xr2:uid="{1CC70915-86DB-494C-BD6F-EFA0A006F3C6}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
     <sheet name="course" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="student_data" localSheetId="0">person!$A$1:$E$5</definedName>
+    <definedName name="student_data" localSheetId="0">person!$B$2:$F$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>染谷将太</t>
   </si>
@@ -93,6 +93,54 @@
   </si>
   <si>
     <t>サーブレットJSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -125,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,13 +196,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +221,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,138 +550,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFEFE7F-8BCD-41D3-B02D-46350A9D9D7F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D2" s="2">
         <v>33850</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G1" t="str">
-        <f>VLOOKUP(E1,course!$A$1:$B$5,2)</f>
+      <c r="H2" t="str">
+        <f>VLOOKUP(F2,course!$A$2:$B$6,2)</f>
         <v>JavaScript</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="2">
         <v>34598</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(E2,course!$A$1:$B$5,2)</f>
+      <c r="H3" t="str">
+        <f>VLOOKUP(F3,course!$A$2:$B$6,2)</f>
         <v>PHP</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>18333</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(E3,course!$A$1:$B$5,2)</f>
+      <c r="H4" t="str">
+        <f>VLOOKUP(F4,course!$A$2:$B$6,2)</f>
         <v>Java</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>28982</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(E4,course!$A$1:$B$5,2)</f>
+      <c r="H5" t="str">
+        <f>VLOOKUP(F5,course!$A$2:$B$6,2)</f>
         <v>HTMLCSS</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>32346</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(E5,course!$A$1:$B$5,2)</f>
+      <c r="H6" t="str">
+        <f>VLOOKUP(F6,course!$A$2:$B$6,2)</f>
         <v>Java</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB20E33-5785-4E31-B93B-C09999D9E487}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -622,43 +748,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
